--- a/gas_net/data/data_files/test/inputData.xlsx
+++ b/gas_net/data/data_files/test/inputData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavinia\Documents\GitHub\gas_networks\gas_net\data\data_files\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssnaik\Biegler\gas_networks_italy\gas_networks\gas_net\data\data_files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A5B0F-8708-4573-8A46-23C19E026677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8843237-2DC3-4F77-A783-138B9E787C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SourcesSP" sheetId="1" r:id="rId1"/>
-    <sheet name="Valves" sheetId="2" r:id="rId2"/>
-    <sheet name="wcons" sheetId="5" r:id="rId3"/>
+    <sheet name="GasParams" sheetId="6" r:id="rId2"/>
+    <sheet name="Valves" sheetId="2" r:id="rId3"/>
+    <sheet name="wcons" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>w</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>N3</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Specific_gravity</t>
   </si>
 </sst>
 </file>
@@ -157,7 +167,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,16 +471,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:MP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="6"/>
       <c r="C1" s="1">
@@ -876,7 +886,7 @@
       <c r="MO1" s="4"/>
       <c r="MP1" s="4"/>
     </row>
-    <row r="2" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1048,6 +1058,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE319EC0-D99C-4A8D-A8C1-159A836D8F9E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.4</v>
+      </c>
+      <c r="B2">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:MV22"/>
   <sheetViews>
@@ -1055,12 +1102,12 @@
       <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="1"/>
@@ -1422,7 +1469,7 @@
       <c r="MU1" s="4"/>
       <c r="MV1" s="4"/>
     </row>
-    <row r="2" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8"/>
@@ -1451,7 +1498,7 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="8"/>
@@ -1480,79 +1527,79 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:360" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:360" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
@@ -1561,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:MP171"/>
   <sheetViews>
@@ -1569,12 +1616,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:354" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>0</v>
       </c>
@@ -1978,7 +2025,7 @@
       <c r="MO1" s="1"/>
       <c r="MP1" s="1"/>
     </row>
-    <row r="2" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2061,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2144,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -2476,659 +2523,659 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:354" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
